--- a/RK7001生产测试工具 软件流程图.xlsx
+++ b/RK7001生产测试工具 软件流程图.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="25440" windowHeight="12915" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="25440" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总体流程图" sheetId="3" r:id="rId1"/>
     <sheet name="详细流程图" sheetId="2" r:id="rId2"/>
     <sheet name="时序图" sheetId="4" r:id="rId3"/>
     <sheet name="硬件资料" sheetId="1" r:id="rId4"/>
+    <sheet name="流程更改" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>GND</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1235,6 +1236,18 @@
   </si>
   <si>
     <t>右转灯开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RK4103测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RK7003测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,7 +1382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1409,6 +1422,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,6 +1436,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1731,26 +1750,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>3)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>目检、人工按</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>KSI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>开关</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1821,15 +1820,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1838,7 +1837,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1771650" y="6581775"/>
+          <a:off x="1781175" y="6629400"/>
           <a:ext cx="1981200" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1868,15 +1867,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>目检：液晶屏</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>人工操作：光感测试</a:t>
+            <a:t>目检：听喇叭声音</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2143,7 +2134,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -2151,7 +2142,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2162,9 +2153,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2762250" y="6038850"/>
-          <a:ext cx="9525" cy="542925"/>
+        <a:xfrm>
+          <a:off x="2771775" y="6038850"/>
+          <a:ext cx="0" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2195,11 +2186,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -2212,9 +2203,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2762250" y="7134225"/>
-          <a:ext cx="0" cy="400050"/>
+        <a:xfrm flipH="1">
+          <a:off x="2762250" y="7181850"/>
+          <a:ext cx="9525" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5817,6 +5808,1010 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="流程图: 可选过程 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="685800"/>
+          <a:ext cx="1104900" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>开始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="流程图: 过程 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190876" y="1552576"/>
+          <a:ext cx="1524000" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>界面，数据初始化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="流程图: 决策 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="2466975"/>
+          <a:ext cx="2257425" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是否扫描</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>号？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="流程图: 决策 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400301" y="3800476"/>
+          <a:ext cx="3143249" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务器标志位是否开启？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="流程图: 决策 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390776" y="5295901"/>
+          <a:ext cx="3200399" cy="666749"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>判断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>号合法性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="流程图: 过程 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219451" y="6391276"/>
+          <a:ext cx="1524000" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BTaddr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>BLEaddr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Key</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="流程图: 过程 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="6381751"/>
+          <a:ext cx="1514475" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>使用默认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BTaddr,BLEaddr, Key</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="流程图: 决策 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419351" y="7524749"/>
+          <a:ext cx="3133724" cy="962026"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>判断测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是否在线？（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0x02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="1076325"/>
+          <a:ext cx="9526" cy="476251"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952876" y="1876426"/>
+          <a:ext cx="4762" cy="590549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3957638" y="3105150"/>
+          <a:ext cx="14288" cy="695326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971926" y="4752975"/>
+          <a:ext cx="19050" cy="542926"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3981451" y="5962650"/>
+          <a:ext cx="9525" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981451" y="6867525"/>
+          <a:ext cx="4762" cy="657224"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280989</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="肘形连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1652589" y="2786063"/>
+          <a:ext cx="1176337" cy="3595688"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="肘形连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2486026" y="6024561"/>
+          <a:ext cx="666749" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>895351</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="流程图: 决策 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277101" y="1228726"/>
+          <a:ext cx="3200399" cy="666749"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RK7003</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>版本号，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0x08</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6111,8 +7106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6130,7 +7125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
@@ -6146,29 +7141,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="D3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="M3" s="12" t="s">
+      <c r="I3" s="13"/>
+      <c r="M3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="Q3" s="12" t="s">
+      <c r="N3" s="13"/>
+      <c r="Q3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
@@ -6549,37 +7544,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -6891,14 +7886,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6912,4 +7907,51 @@
   <pageSetup paperSize="53" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="9" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RK7001生产测试工具 软件流程图.xlsx
+++ b/RK7001生产测试工具 软件流程图.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="25440" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="25440" windowHeight="12915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总体流程图" sheetId="3" r:id="rId1"/>
-    <sheet name="详细流程图" sheetId="2" r:id="rId2"/>
-    <sheet name="时序图" sheetId="4" r:id="rId3"/>
-    <sheet name="硬件资料" sheetId="1" r:id="rId4"/>
-    <sheet name="流程更改" sheetId="5" r:id="rId5"/>
+    <sheet name="时序图" sheetId="4" r:id="rId2"/>
+    <sheet name="硬件资料" sheetId="1" r:id="rId3"/>
+    <sheet name="流程更改" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
   <si>
     <t>GND</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1163,78 +1162,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发送同步报文，获取RK7001自检结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RK700自检结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扫描条码，下压夹具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按KSI按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受RK4103的广播呼叫（0x06）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>告知RK4103,进入测试模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x03 参数配置请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x83 对RK4103进行参数配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x23接受RK4103的板测结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA3板测结果回应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x24 参数保存通知（写SN号，蓝牙地址，等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA4 参数保存响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x26蓝牙测试结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝牙测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹对话框，人工目检</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xA6结束蓝牙通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试总结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>右转灯开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1248,6 +1187,106 @@
   </si>
   <si>
     <t>RK7003测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始发送自检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询自检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询KSI状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开KSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭KSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询KSI状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件打开ACC_ECU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件关闭ACC_ECU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询ACC_ECU是否关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询ACC_ECU是否打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化遥控测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询遥控测试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启ECU,恢复同步报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入测试模式，接受配置请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送配置，接受测试结果（0x23）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写NV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0x24）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙测试（0x26）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1382,7 +1421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1422,9 +1461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2238,2505 +2274,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="圆角矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3009899" y="657225"/>
-          <a:ext cx="847725" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>开始</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2447925" y="1400175"/>
-          <a:ext cx="1981199" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、初始化界面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、判断数据库是否连接</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、构建参数和任务</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3433762" y="971550"/>
-          <a:ext cx="4763" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="流程图: 决策 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2095501" y="2447926"/>
-          <a:ext cx="2657474" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>有扫描</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>SN</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>号？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="流程图: 决策 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1971675" y="4562476"/>
-          <a:ext cx="2905125" cy="676274"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>收到自检结果</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>(0x98)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="流程图: 决策 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314326" y="3857625"/>
-          <a:ext cx="1628774" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>没有超时？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="流程图: 决策 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2105026" y="5886451"/>
-          <a:ext cx="2657474" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>是否按</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>KSI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>按钮？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="流程图: 过程 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686049" y="3714750"/>
-          <a:ext cx="1495425" cy="295276"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>发送同步报文</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>(0x12)</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3424238" y="2057400"/>
-          <a:ext cx="14287" cy="390526"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3424238" y="3133726"/>
-          <a:ext cx="9524" cy="581024"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3424238" y="4010026"/>
-          <a:ext cx="9524" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="肘形连接符 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="11" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1128713" y="4295775"/>
-          <a:ext cx="3748087" cy="604838"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 100127"/>
-            <a:gd name="adj2" fmla="val 77953"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="肘形连接符 23"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="0"/>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2209800" y="2633664"/>
-          <a:ext cx="142875" cy="2305049"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 260000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="流程图: 决策 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304801" y="5600700"/>
-          <a:ext cx="1628774" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>没有超时？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="肘形连接符 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="26" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1119188" y="6038850"/>
-          <a:ext cx="3643312" cy="190501"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 88104"/>
-            <a:gd name="adj2" fmla="val -4999"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="肘形连接符 29"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="0"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2133599" y="4586288"/>
-          <a:ext cx="285751" cy="2314575"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -80000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3424238" y="5238750"/>
-          <a:ext cx="9525" cy="647701"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3433763" y="6572251"/>
-          <a:ext cx="4762" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="肘形连接符 49"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2074068" y="6093620"/>
-          <a:ext cx="428626" cy="2300287"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -53333"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="肘形连接符 82"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="2974182" y="2897982"/>
-          <a:ext cx="904874" cy="4762"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 12105"/>
-            <a:gd name="adj2" fmla="val 32803423"/>
-            <a:gd name="adj3" fmla="val 125263"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="流程图: 决策 83"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6200776" y="857250"/>
-          <a:ext cx="2657474" cy="914399"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>收到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>PIN</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>测试结果？（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>0x23</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="矩形 89"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6648450" y="2066925"/>
-          <a:ext cx="1771650" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>发送结果回应（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>0xA3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="流程图: 决策 90"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6210301" y="2733675"/>
-          <a:ext cx="2657474" cy="914399"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>收到参数保存通知？（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>0x24</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="矩形 91"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6657975" y="3971925"/>
-          <a:ext cx="1771650" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>参数保存通知回应</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="肘形连接符 93"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="84" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1364456" y="2940843"/>
-          <a:ext cx="8248650" cy="4081463"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2771"/>
-            <a:gd name="adj2" fmla="val 44574"/>
-            <a:gd name="adj3" fmla="val 102771"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直接箭头连接符 96"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="84" idx="2"/>
-          <a:endCxn id="90" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7529513" y="1771649"/>
-          <a:ext cx="4762" cy="295276"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="直接箭头连接符 98"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="90" idx="2"/>
-          <a:endCxn id="91" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7534275" y="2400300"/>
-          <a:ext cx="4763" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="直接箭头连接符 100"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="91" idx="2"/>
-          <a:endCxn id="92" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7539038" y="3648074"/>
-          <a:ext cx="4762" cy="323851"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="流程图: 决策 108"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6219826" y="4676775"/>
-          <a:ext cx="2657474" cy="914399"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>收到蓝牙测试结果？（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>0x26</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="矩形 109"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6677025" y="6010275"/>
-          <a:ext cx="1771650" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>蓝牙测试结果回应</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="流程图: 决策 110"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6219825" y="6772275"/>
-          <a:ext cx="2657474" cy="914399"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>弹出目测对话框</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>目测超时？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="直接箭头连接符 112"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="109" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7543800" y="4305300"/>
-          <a:ext cx="4763" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="直接箭头连接符 114"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="109" idx="2"/>
-          <a:endCxn id="110" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7548563" y="5591174"/>
-          <a:ext cx="14287" cy="419101"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直接箭头连接符 116"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="110" idx="2"/>
-          <a:endCxn id="111" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7548562" y="6343650"/>
-          <a:ext cx="14288" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="流程图: 决策 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9086851" y="2581275"/>
-          <a:ext cx="1628774" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>没有超时？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="肘形连接符 5"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="91" idx="3"/>
-          <a:endCxn id="46" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8867775" y="3019425"/>
-          <a:ext cx="1033463" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="肘形连接符 7"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="0"/>
-          <a:endCxn id="91" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="8643938" y="1476375"/>
-          <a:ext cx="152400" cy="2362200"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="流程图: 决策 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9039226" y="4552950"/>
-          <a:ext cx="1628774" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>没有超时？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="肘形连接符 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="109" idx="3"/>
-          <a:endCxn id="54" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8877300" y="4991100"/>
-          <a:ext cx="976313" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="肘形连接符 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="0"/>
-          <a:endCxn id="109" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="8639175" y="3462337"/>
-          <a:ext cx="123825" cy="2305050"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -92308"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="肘形连接符 31"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9582150" y="2800350"/>
-          <a:ext cx="1133475" cy="7419976"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20168"/>
-            <a:gd name="adj2" fmla="val 51476"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="肘形连接符 33"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9582150" y="4772025"/>
-          <a:ext cx="1085850" cy="5448301"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -25439"/>
-            <a:gd name="adj2" fmla="val 33828"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="肘形连接符 39"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="314326" y="4076700"/>
-          <a:ext cx="9267824" cy="6143626"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2467"/>
-            <a:gd name="adj2" fmla="val 92093"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="肘形连接符 46"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="304800" y="5819774"/>
-          <a:ext cx="9277349" cy="4400551"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2464"/>
-            <a:gd name="adj2" fmla="val 88853"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>64313</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="13849350" cy="10179863"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -4934,14 +2471,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4950,7 +2487,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2238375" y="1876425"/>
+          <a:off x="2238375" y="1885950"/>
           <a:ext cx="6619875" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4980,15 +2517,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4997,7 +2534,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2219325" y="1876425"/>
+          <a:off x="2171700" y="2247900"/>
           <a:ext cx="9382125" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5027,15 +2564,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5044,8 +2581,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2200275" y="2581275"/>
-          <a:ext cx="6619875" cy="9525"/>
+          <a:off x="2181226" y="2743200"/>
+          <a:ext cx="3238499" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5074,13 +2611,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:colOff>171452</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5091,8 +2628,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2228851" y="3076575"/>
-          <a:ext cx="9353549" cy="9525"/>
+          <a:off x="2228852" y="3067050"/>
+          <a:ext cx="3228973" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5126,10 +2663,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5139,7 +2676,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2238375" y="3429000"/>
-          <a:ext cx="9382125" cy="9525"/>
+          <a:ext cx="3190875" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5168,15 +2705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5185,8 +2722,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2276476" y="3781425"/>
-          <a:ext cx="9353549" cy="9525"/>
+          <a:off x="2219327" y="3943350"/>
+          <a:ext cx="6591298" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5216,14 +2753,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5232,8 +2769,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228850" y="4114800"/>
-          <a:ext cx="9382125" cy="9525"/>
+          <a:off x="2228850" y="3790950"/>
+          <a:ext cx="6591300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5262,14 +2799,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>123827</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5279,8 +2816,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2286001" y="4619625"/>
-          <a:ext cx="9353549" cy="9525"/>
+          <a:off x="2181227" y="4457700"/>
+          <a:ext cx="3209923" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5309,15 +2846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5326,8 +2863,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="4972050"/>
-          <a:ext cx="9382125" cy="9525"/>
+          <a:off x="2171700" y="4286250"/>
+          <a:ext cx="3267075" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5356,15 +2893,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5373,8 +2910,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2343151" y="5314950"/>
-          <a:ext cx="9353549" cy="9525"/>
+          <a:off x="2133602" y="5153025"/>
+          <a:ext cx="6705598" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5403,15 +2940,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5420,8 +2957,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2219325" y="5648325"/>
-          <a:ext cx="9382125" cy="9525"/>
+          <a:off x="2133600" y="4981575"/>
+          <a:ext cx="6734175" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5450,14 +2987,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>123827</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5467,8 +3004,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2276476" y="6696075"/>
-          <a:ext cx="9353549" cy="9525"/>
+          <a:off x="2181227" y="7562850"/>
+          <a:ext cx="6657973" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5497,15 +3034,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5513,9 +3050,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2228850" y="7019925"/>
-          <a:ext cx="9382125" cy="9525"/>
+        <a:xfrm flipV="1">
+          <a:off x="2219325" y="5495925"/>
+          <a:ext cx="3190875" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5543,28 +3080,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="左右箭头 17"/>
+        <xdr:cNvPr id="30" name="右箭头 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="6162675"/>
-          <a:ext cx="5943600" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
+          <a:off x="1447800" y="10325100"/>
+          <a:ext cx="533400" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -5597,124 +3134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="左右箭头 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5562600" y="4267200"/>
-          <a:ext cx="6115050" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="右箭头 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1447800" y="7391400"/>
-          <a:ext cx="533400" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5723,8 +3152,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="7553325"/>
-          <a:ext cx="9382125" cy="9525"/>
+          <a:off x="2219325" y="8229600"/>
+          <a:ext cx="6629400" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5750,10 +3179,621 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="2571750"/>
+          <a:ext cx="3238500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2190752" y="5648325"/>
+          <a:ext cx="3209923" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2219325" y="6000750"/>
+          <a:ext cx="3190875" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2171702" y="6172200"/>
+          <a:ext cx="3209923" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2181225" y="6524625"/>
+          <a:ext cx="3190875" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2162177" y="6696075"/>
+          <a:ext cx="3209923" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="7029451"/>
+          <a:ext cx="6657975" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2228850" y="7372350"/>
+          <a:ext cx="6638925" cy="19051"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2219327" y="8410575"/>
+          <a:ext cx="6657973" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="8924925"/>
+          <a:ext cx="6629400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2162177" y="9086850"/>
+          <a:ext cx="6657973" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直接箭头连接符 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="9601200"/>
+          <a:ext cx="6629400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2247902" y="9763125"/>
+          <a:ext cx="6657973" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5813,7 +3853,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5892,7 +3932,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190876" y="1552576"/>
+          <a:off x="3190876" y="1733551"/>
           <a:ext cx="1524000" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -6736,15 +4776,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>895351</xdr:colOff>
+      <xdr:colOff>914401</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6753,10 +4793,356 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7277101" y="1228726"/>
-          <a:ext cx="3200399" cy="666749"/>
+          <a:off x="7296151" y="1228726"/>
+          <a:ext cx="3200399" cy="981074"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RK7003</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>版本号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0x08</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="肘形连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2721770" y="2493169"/>
+          <a:ext cx="7439024" cy="4910138"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3073"/>
+            <a:gd name="adj2" fmla="val 38991"/>
+            <a:gd name="adj3" fmla="val 103073"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="流程图: 决策 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286626" y="2600326"/>
+          <a:ext cx="3200399" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自检</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="流程图: 决策 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296151" y="3733800"/>
+          <a:ext cx="3200399" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>告知测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SERVER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>KSI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>成功？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="流程图: 决策 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296151" y="5238750"/>
+          <a:ext cx="3200399" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>告知测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SERVER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，关闭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>KSI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>成功？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="流程图: 过程 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="6610352"/>
+          <a:ext cx="1343026" cy="333373"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -6783,35 +5169,2596 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>获取</a:t>
+            <a:t>软件打开</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>RK7003</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>版本号，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>UID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>？（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>0x08</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
+            <a:t>ACC_ECU</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="流程图: 决策 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286626" y="7219950"/>
+          <a:ext cx="3200399" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ACC_ECU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打开了？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="流程图: 过程 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248650" y="8591550"/>
+          <a:ext cx="1343026" cy="333373"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>软件关闭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ACC_ECU</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="流程图: 决策 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286626" y="9267825"/>
+          <a:ext cx="3200399" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ACC_ECU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关闭了？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="流程图: 过程 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058150" y="10544175"/>
+          <a:ext cx="1676400" cy="333373"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>通知测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试遥控</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="流程图: 决策 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296151" y="11172825"/>
+          <a:ext cx="3200399" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>PCU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>遥控测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="流程图: 过程 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14392275" y="1038227"/>
+          <a:ext cx="1343026" cy="333373"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>恢复同步指令</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="流程图: 决策 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13449301" y="1914525"/>
+          <a:ext cx="3200399" cy="1047749"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收到参数配置请求？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0X03</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="流程图: 过程 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14306549" y="3505202"/>
+          <a:ext cx="1514475" cy="333373"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发送参数配置（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0x83</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="流程图: 决策 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13458826" y="4495800"/>
+          <a:ext cx="3200399" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试结果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0X23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="流程图: 决策 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13449301" y="7648575"/>
+          <a:ext cx="3200399" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NV OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0X24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="流程图: 决策 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13468351" y="9105900"/>
+          <a:ext cx="3200399" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>蓝牙测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0X26</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="流程图: 决策 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13458825" y="10715625"/>
+          <a:ext cx="3200399" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>人工目检 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>听喇叭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297517</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>27454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="流程图: 过程 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13946282" y="14158072"/>
+          <a:ext cx="2167777" cy="745752"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试成功</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="流程图: 过程 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10555941" y="14164237"/>
+          <a:ext cx="2353235" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试失败</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>160243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="肘形连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469096" y="11433361"/>
+          <a:ext cx="1263463" cy="2730876"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="肘形连接符 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10459571" y="9565341"/>
+          <a:ext cx="1272988" cy="4598896"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>150719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="肘形连接符 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10459571" y="7557807"/>
+          <a:ext cx="1272988" cy="6606430"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="肘形连接符 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469096" y="5615267"/>
+          <a:ext cx="1263463" cy="8548970"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="肘形连接符 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469096" y="4140573"/>
+          <a:ext cx="1263463" cy="10023664"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="肘形连接符 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10459571" y="2902044"/>
+          <a:ext cx="1272988" cy="11262193"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="肘形连接符 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469096" y="1689008"/>
+          <a:ext cx="1263463" cy="12475229"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="肘形连接符 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732560" y="11013141"/>
+          <a:ext cx="1689847" cy="3151096"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>155482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="肘形连接符 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732560" y="9411541"/>
+          <a:ext cx="1699373" cy="4752696"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="肘形连接符 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732560" y="7982791"/>
+          <a:ext cx="1680323" cy="6181446"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="肘形连接符 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732560" y="6385951"/>
+          <a:ext cx="1699373" cy="7778285"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="肘形连接符 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732559" y="4892207"/>
+          <a:ext cx="1689848" cy="9272029"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="肘形连接符 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732560" y="2393015"/>
+          <a:ext cx="1680323" cy="11771221"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>675155</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5884</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直接箭头连接符 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15007479" y="1349749"/>
+          <a:ext cx="14287" cy="529477"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>675155</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5883</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直接箭头连接符 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15007479" y="2906805"/>
+          <a:ext cx="14286" cy="532843"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1122</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5883</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直接箭头连接符 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15017004" y="3766297"/>
+          <a:ext cx="4761" cy="643778"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>675155</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1122</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直接箭头连接符 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15007479" y="5374341"/>
+          <a:ext cx="9525" cy="2127997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>675155</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>10647</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直接箭头连接符 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15007479" y="8463243"/>
+          <a:ext cx="19050" cy="466164"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1121</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>10647</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直接箭头连接符 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15017003" y="9893674"/>
+          <a:ext cx="9526" cy="615202"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1121</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>14289</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>27454</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直接箭头连接符 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15017003" y="11517406"/>
+          <a:ext cx="13168" cy="2640666"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23814</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直接箭头连接符 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8875059" y="2185708"/>
+          <a:ext cx="12608" cy="391645"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>656665</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>669273</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8836959" y="3256990"/>
+          <a:ext cx="12608" cy="391645"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3643</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10366</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867496" y="4608419"/>
+          <a:ext cx="6723" cy="531159"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>682719</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8863013" y="6127937"/>
+          <a:ext cx="840" cy="382681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>678237</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>61072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接箭头连接符 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858531" y="6795807"/>
+          <a:ext cx="5322" cy="275105"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1402</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接箭头连接符 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8865255" y="8046383"/>
+          <a:ext cx="31936" cy="378760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>7283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8126</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接箭头连接符 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8863853" y="8759077"/>
+          <a:ext cx="8126" cy="328894"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14849</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接箭头连接符 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8863853" y="10043271"/>
+          <a:ext cx="14849" cy="266140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>679077</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>121583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10367</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直接箭头连接符 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8859371" y="10722348"/>
+          <a:ext cx="14849" cy="266140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10365</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5883</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="肘形连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6502495" y="3391460"/>
+          <a:ext cx="10890994" cy="6147547"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2099"/>
+            <a:gd name="adj2" fmla="val 57519"/>
+            <a:gd name="adj3" fmla="val 102099"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="肘形连接符 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537947" y="8030415"/>
+          <a:ext cx="6217024" cy="6044173"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17916"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7123,51 +8070,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="D3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="I3" s="12"/>
+      <c r="M3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="Q3" s="13" t="s">
+      <c r="N3" s="12"/>
+      <c r="Q3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="13"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="9"/>
       <c r="I4" s="9"/>
@@ -7222,7 +8153,7 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D11" s="9"/>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I11" s="9"/>
       <c r="N11" s="9"/>
@@ -7237,7 +8168,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D13" s="9"/>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I13" s="9"/>
       <c r="N13" s="9"/>
@@ -7252,7 +8183,7 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D15" s="9"/>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I15" s="9"/>
       <c r="N15" s="9"/>
@@ -7260,6 +8191,9 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D16" s="9"/>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="N16" s="9"/>
       <c r="R16" s="9"/>
@@ -7273,7 +8207,7 @@
     <row r="18" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D18" s="9"/>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I18" s="9"/>
       <c r="N18" s="9"/>
@@ -7288,7 +8222,7 @@
     <row r="20" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D20" s="9"/>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I20" s="9"/>
       <c r="N20" s="9"/>
@@ -7303,7 +8237,7 @@
     <row r="22" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D22" s="9"/>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I22" s="9"/>
       <c r="N22" s="9"/>
@@ -7317,19 +8251,16 @@
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D24" s="9"/>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
       <c r="I24" s="9"/>
       <c r="N24" s="9"/>
       <c r="R24" s="9"/>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D25" s="9"/>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
       <c r="I25" s="9"/>
-      <c r="L25" t="s">
-        <v>85</v>
-      </c>
       <c r="N25" s="9"/>
       <c r="R25" s="9"/>
     </row>
@@ -7341,9 +8272,6 @@
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D27" s="9"/>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
       <c r="I27" s="9"/>
       <c r="N27" s="9"/>
       <c r="R27" s="9"/>
@@ -7357,7 +8285,7 @@
     <row r="29" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D29" s="9"/>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="N29" s="9"/>
@@ -7371,144 +8299,252 @@
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D31" s="9"/>
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
       <c r="I31" s="9"/>
       <c r="N31" s="9"/>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D32" s="9"/>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="N32" s="9"/>
       <c r="R32" s="9"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D33" s="9"/>
-      <c r="E33" t="s">
-        <v>82</v>
-      </c>
       <c r="I33" s="9"/>
       <c r="N33" s="9"/>
       <c r="R33" s="9"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D34" s="9"/>
       <c r="I34" s="9"/>
       <c r="N34" s="9"/>
       <c r="R34" s="9"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D35" s="9"/>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="N35" s="9"/>
       <c r="R35" s="9"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D36" s="9"/>
       <c r="I36" s="9"/>
       <c r="L36" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="N36" s="9"/>
       <c r="R36" s="9"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D37" s="9"/>
       <c r="I37" s="9"/>
       <c r="N37" s="9"/>
       <c r="R37" s="9"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D38" s="9"/>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="N38" s="9"/>
       <c r="R38" s="9"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D39" s="9"/>
-      <c r="E39" t="s">
-        <v>83</v>
-      </c>
       <c r="I39" s="9"/>
       <c r="N39" s="9"/>
       <c r="R39" s="9"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D40" s="9"/>
       <c r="I40" s="9"/>
       <c r="N40" s="9"/>
       <c r="R40" s="9"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D41" s="9"/>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="N41" s="9"/>
       <c r="R41" s="9"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D42" s="9"/>
       <c r="I42" s="9"/>
       <c r="N42" s="9"/>
       <c r="R42" s="9"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D43" s="9"/>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="N43" s="9"/>
       <c r="R43" s="9"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D44" s="9"/>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
       <c r="I44" s="9"/>
       <c r="N44" s="9"/>
       <c r="R44" s="9"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D45" s="9"/>
       <c r="I45" s="9"/>
       <c r="N45" s="9"/>
       <c r="R45" s="9"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D46" s="9"/>
       <c r="I46" s="9"/>
       <c r="N46" s="9"/>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D47" s="9"/>
       <c r="I47" s="9"/>
       <c r="N47" s="9"/>
       <c r="R47" s="9"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D48" s="9"/>
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="N48" s="9"/>
       <c r="R48" s="9"/>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D49" s="9"/>
       <c r="I49" s="9"/>
       <c r="N49" s="9"/>
       <c r="R49" s="9"/>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D50" s="9"/>
       <c r="I50" s="9"/>
       <c r="N50" s="9"/>
       <c r="R50" s="9"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="R51" s="9"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D52" s="9"/>
+      <c r="E52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="R52" s="9"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="R53" s="9"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="R54" s="9"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="R55" s="9"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D56" s="9"/>
+      <c r="E56" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="R56" s="9"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="R57" s="9"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="R58" s="9"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="R59" s="9"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="R60" s="9"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="R61" s="9"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="R62" s="9"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="R63" s="9"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="R64" s="9"/>
+    </row>
+    <row r="65" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="R65" s="9"/>
+    </row>
+    <row r="66" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="R66" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7524,7 +8560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -7544,37 +8580,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -7609,7 +8645,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>18</v>
@@ -7886,14 +8922,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7909,12 +8945,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:Q3"/>
+  <dimension ref="D3:X71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7922,33 +8958,224 @@
     <col min="7" max="9" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+    <row r="3" spans="4:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+    </row>
+    <row r="8" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="U18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="O23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="U24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="R28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="O32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="U33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="G36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L37" t="s">
+        <v>98</v>
+      </c>
+      <c r="R37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="G42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="U43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="O44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="R46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="I47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="G51" t="s">
+        <v>98</v>
+      </c>
+      <c r="U51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="R55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="O56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L60" t="s">
+        <v>98</v>
+      </c>
+      <c r="U60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L64" t="s">
+        <v>98</v>
+      </c>
+      <c r="R64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="O67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="U69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L71" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:X3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RK7001生产测试工具 软件流程图.xlsx
+++ b/RK7001生产测试工具 软件流程图.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="25440" windowHeight="12915"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="25440" windowHeight="12915" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="流程图" sheetId="3" r:id="rId1"/>
+    <sheet name="总体流程图" sheetId="3" r:id="rId1"/>
     <sheet name="时序图" sheetId="4" r:id="rId2"/>
     <sheet name="硬件资料" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="流程更改" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
   <si>
     <t>GND</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1178,6 +1178,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RK4103测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RK7003测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>开始发送自检</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1250,23 +1262,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程图</t>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,15 +1368,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1410,7 +1421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1447,9 +1458,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1465,7 +1473,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1484,59 +1492,779 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="流程图: 可选过程 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="828675"/>
+          <a:ext cx="1104900" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>开始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="流程图: 过程 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1447800" y="476250"/>
-          <a:ext cx="7038975" cy="23098125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+          <a:off x="1781175" y="1657350"/>
+          <a:ext cx="1981200" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>扫描</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>号条码，启动测试</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="流程图: 过程 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="2590800"/>
+          <a:ext cx="1981200" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>号合法性检查</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的连接是否正常</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="流程图: 过程 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="4048125"/>
+          <a:ext cx="1981200" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RK7001</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的读版本信息、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）自检</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="流程图: 过程 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="5486400"/>
+          <a:ext cx="1981200" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RK4103</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的板测，写号，蓝牙测试</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="流程图: 过程 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="6629400"/>
+          <a:ext cx="1981200" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>目检：听喇叭声音</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="流程图: 可选过程 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="7534275"/>
+          <a:ext cx="1104900" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>结束</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="1219200"/>
+          <a:ext cx="9525" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2762250" y="2057400"/>
+          <a:ext cx="9525" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="3286125"/>
+          <a:ext cx="9525" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="4962525"/>
+          <a:ext cx="0" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="6038850"/>
+          <a:ext cx="0" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2762250" y="7181850"/>
+          <a:ext cx="9525" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3120,6 +3848,4049 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="流程图: 可选过程 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="685800"/>
+          <a:ext cx="1104900" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>开始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="流程图: 过程 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190876" y="1733551"/>
+          <a:ext cx="1524000" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>界面，数据初始化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="流程图: 决策 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="2466975"/>
+          <a:ext cx="2257425" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是否扫描</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>号？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="流程图: 决策 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400301" y="3800476"/>
+          <a:ext cx="3143249" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务器标志位是否开启？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="流程图: 决策 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390776" y="5295901"/>
+          <a:ext cx="3200399" cy="666749"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>判断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>号合法性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="流程图: 过程 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219451" y="6391276"/>
+          <a:ext cx="1524000" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BTaddr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>BLEaddr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Key</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="流程图: 过程 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="6381751"/>
+          <a:ext cx="1514475" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>使用默认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BTaddr,BLEaddr, Key</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="流程图: 决策 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419351" y="7524749"/>
+          <a:ext cx="3133724" cy="962026"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>判断测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是否在线？（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0x02</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="1076325"/>
+          <a:ext cx="9526" cy="476251"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952876" y="1876426"/>
+          <a:ext cx="4762" cy="590549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3957638" y="3105150"/>
+          <a:ext cx="14288" cy="695326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971926" y="4752975"/>
+          <a:ext cx="19050" cy="542926"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3981451" y="5962650"/>
+          <a:ext cx="9525" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981451" y="6867525"/>
+          <a:ext cx="4762" cy="657224"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280989</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="肘形连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1652589" y="2786063"/>
+          <a:ext cx="1176337" cy="3595688"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="肘形连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2486026" y="6024561"/>
+          <a:ext cx="666749" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="流程图: 决策 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296151" y="1228726"/>
+          <a:ext cx="3200399" cy="981074"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RK7003</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>版本号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0x08</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="肘形连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2721770" y="2493169"/>
+          <a:ext cx="7439024" cy="4910138"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3073"/>
+            <a:gd name="adj2" fmla="val 38991"/>
+            <a:gd name="adj3" fmla="val 103073"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="流程图: 决策 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286626" y="2600326"/>
+          <a:ext cx="3200399" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自检</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="流程图: 决策 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296151" y="3733800"/>
+          <a:ext cx="3200399" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>告知测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SERVER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>KSI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>成功？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="流程图: 决策 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296151" y="5238750"/>
+          <a:ext cx="3200399" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>告知测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SERVER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，关闭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>KSI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>成功？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="流程图: 过程 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="6610352"/>
+          <a:ext cx="1343026" cy="333373"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>软件打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ACC_ECU</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="流程图: 决策 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286626" y="7219950"/>
+          <a:ext cx="3200399" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ACC_ECU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打开了？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="流程图: 过程 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248650" y="8591550"/>
+          <a:ext cx="1343026" cy="333373"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>软件关闭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ACC_ECU</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="流程图: 决策 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286626" y="9267825"/>
+          <a:ext cx="3200399" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ACC_ECU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关闭了？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="流程图: 过程 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058150" y="10544175"/>
+          <a:ext cx="1676400" cy="333373"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>通知测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试遥控</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="流程图: 决策 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296151" y="11172825"/>
+          <a:ext cx="3200399" cy="971549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>PCU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>遥控测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="流程图: 过程 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14392275" y="1038227"/>
+          <a:ext cx="1343026" cy="333373"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>恢复同步指令</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="流程图: 决策 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13449301" y="1914525"/>
+          <a:ext cx="3200399" cy="1047749"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>收到参数配置请求？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0X03</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="流程图: 过程 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14306549" y="3505202"/>
+          <a:ext cx="1514475" cy="333373"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发送参数配置（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0x83</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="流程图: 决策 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13458826" y="4495800"/>
+          <a:ext cx="3200399" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试结果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0X23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="流程图: 决策 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13468351" y="6019800"/>
+          <a:ext cx="3200399" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试结果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0X23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="流程图: 决策 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13449301" y="7648575"/>
+          <a:ext cx="3200399" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NV OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0X24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="流程图: 决策 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13468351" y="9105900"/>
+          <a:ext cx="3200399" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>蓝牙测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0X26</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="流程图: 决策 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13458825" y="10715625"/>
+          <a:ext cx="3200399" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>人工目检 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>听喇叭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297517</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>27454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="流程图: 过程 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13946282" y="14158072"/>
+          <a:ext cx="2167777" cy="745752"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试成功</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="流程图: 过程 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10555941" y="14164237"/>
+          <a:ext cx="2353235" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>测试失败</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>160243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="肘形连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469096" y="11433361"/>
+          <a:ext cx="1263463" cy="2730876"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="肘形连接符 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10459571" y="9565341"/>
+          <a:ext cx="1272988" cy="4598896"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>150719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="肘形连接符 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10459571" y="7557807"/>
+          <a:ext cx="1272988" cy="6606430"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="肘形连接符 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469096" y="5615267"/>
+          <a:ext cx="1263463" cy="8548970"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="肘形连接符 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469096" y="4140573"/>
+          <a:ext cx="1263463" cy="10023664"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="肘形连接符 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10459571" y="2902044"/>
+          <a:ext cx="1272988" cy="11262193"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="肘形连接符 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469096" y="1689008"/>
+          <a:ext cx="1263463" cy="12475229"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="肘形连接符 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732560" y="11013141"/>
+          <a:ext cx="1689847" cy="3151096"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>155482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="肘形连接符 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732560" y="9411541"/>
+          <a:ext cx="1699373" cy="4752696"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="肘形连接符 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732560" y="7982791"/>
+          <a:ext cx="1680323" cy="6181446"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="肘形连接符 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732560" y="6385951"/>
+          <a:ext cx="1699373" cy="7778285"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="肘形连接符 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732559" y="4892207"/>
+          <a:ext cx="1689848" cy="9272029"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="肘形连接符 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11732560" y="2393015"/>
+          <a:ext cx="1680323" cy="11771221"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>675155</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5884</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直接箭头连接符 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15007479" y="1349749"/>
+          <a:ext cx="14287" cy="529477"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>675155</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5883</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直接箭头连接符 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15007479" y="2906805"/>
+          <a:ext cx="14286" cy="532843"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1122</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5883</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直接箭头连接符 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15017004" y="3766297"/>
+          <a:ext cx="4761" cy="643778"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1122</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>10647</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直接箭头连接符 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15017004" y="5374341"/>
+          <a:ext cx="9525" cy="529478"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>675155</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>10647</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直接箭头连接符 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15007479" y="6868085"/>
+          <a:ext cx="19050" cy="634253"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>675155</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>10647</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直接箭头连接符 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15007479" y="8463243"/>
+          <a:ext cx="19050" cy="466164"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1121</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>10647</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直接箭头连接符 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15017003" y="9893674"/>
+          <a:ext cx="9526" cy="615202"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1121</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>14289</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>27454</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直接箭头连接符 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15017003" y="11517406"/>
+          <a:ext cx="13168" cy="2640666"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23814</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直接箭头连接符 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8875059" y="2185708"/>
+          <a:ext cx="12608" cy="391645"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>656665</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>669273</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8836959" y="3256990"/>
+          <a:ext cx="12608" cy="391645"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3643</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10366</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867496" y="4608419"/>
+          <a:ext cx="6723" cy="531159"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>682719</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8863013" y="6127937"/>
+          <a:ext cx="840" cy="382681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>678237</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>61072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接箭头连接符 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858531" y="6795807"/>
+          <a:ext cx="5322" cy="275105"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1402</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接箭头连接符 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8865255" y="8046383"/>
+          <a:ext cx="31936" cy="378760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>7283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8126</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接箭头连接符 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8863853" y="8759077"/>
+          <a:ext cx="8126" cy="328894"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14849</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接箭头连接符 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8863853" y="10043271"/>
+          <a:ext cx="14849" cy="266140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>679077</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>121583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10367</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直接箭头连接符 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8859371" y="10722348"/>
+          <a:ext cx="14849" cy="266140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10365</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5883</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="肘形连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6502495" y="3391460"/>
+          <a:ext cx="10890994" cy="6147547"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2099"/>
+            <a:gd name="adj2" fmla="val 57519"/>
+            <a:gd name="adj3" fmla="val 102099"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="肘形连接符 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537947" y="8030415"/>
+          <a:ext cx="6217024" cy="6044173"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17916"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3412,48 +8183,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:H6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="N131" sqref="N131"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D4" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:H6"/>
-  </mergeCells>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3461,29 +8204,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="D3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="I3" s="12"/>
+      <c r="M3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="Q3" s="13" t="s">
+      <c r="N3" s="12"/>
+      <c r="Q3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="13"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
@@ -3542,7 +8285,7 @@
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D11" s="9"/>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I11" s="9"/>
       <c r="N11" s="9"/>
@@ -3557,7 +8300,7 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D13" s="9"/>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I13" s="9"/>
       <c r="N13" s="9"/>
@@ -3572,7 +8315,7 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D15" s="9"/>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I15" s="9"/>
       <c r="N15" s="9"/>
@@ -3581,7 +8324,7 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D16" s="9"/>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I16" s="9"/>
       <c r="N16" s="9"/>
@@ -3596,7 +8339,7 @@
     <row r="18" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D18" s="9"/>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I18" s="9"/>
       <c r="N18" s="9"/>
@@ -3611,7 +8354,7 @@
     <row r="20" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D20" s="9"/>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I20" s="9"/>
       <c r="N20" s="9"/>
@@ -3626,7 +8369,7 @@
     <row r="22" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D22" s="9"/>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I22" s="9"/>
       <c r="N22" s="9"/>
@@ -3647,7 +8390,7 @@
     <row r="25" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D25" s="9"/>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I25" s="9"/>
       <c r="N25" s="9"/>
@@ -3674,7 +8417,7 @@
     <row r="29" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D29" s="9"/>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="N29" s="9"/>
@@ -3695,7 +8438,7 @@
     <row r="32" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D32" s="9"/>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="N32" s="9"/>
@@ -3716,7 +8459,7 @@
     <row r="35" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D35" s="9"/>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I35" s="9"/>
       <c r="N35" s="9"/>
@@ -3740,7 +8483,7 @@
     <row r="38" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D38" s="9"/>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I38" s="9"/>
       <c r="N38" s="9"/>
@@ -3761,7 +8504,7 @@
     <row r="41" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D41" s="9"/>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="N41" s="9"/>
@@ -3776,7 +8519,7 @@
     <row r="43" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D43" s="9"/>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I43" s="9"/>
       <c r="N43" s="9"/>
@@ -3809,7 +8552,7 @@
     <row r="48" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D48" s="9"/>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I48" s="9"/>
       <c r="N48" s="9"/>
@@ -3836,10 +8579,10 @@
     <row r="52" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D52" s="9"/>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I52" s="9"/>
       <c r="N52" s="9"/>
@@ -3866,7 +8609,7 @@
     <row r="56" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D56" s="9"/>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I56" s="9"/>
       <c r="N56" s="9"/>
@@ -3951,10 +8694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3969,37 +8712,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4183,67 +8926,81 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4">
-        <v>1</v>
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="4">
-        <v>7</v>
+      <c r="G31" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>8</v>
@@ -4252,95 +9009,64 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D34" s="4">
-        <v>25</v>
-      </c>
-      <c r="E34" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B37" s="5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A39:F39"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
@@ -4353,116 +9079,238 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B28:S29"/>
+  <dimension ref="D3:X71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="N29" s="12" t="s">
+    <row r="3" spans="4:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+    </row>
+    <row r="8" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="O9" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>12</v>
+      <c r="U9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="U18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="O23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="U24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="R28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="O32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="U33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="G36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L37" t="s">
+        <v>98</v>
+      </c>
+      <c r="R37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="G42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="U43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="O44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="R46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="I47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="G51" t="s">
+        <v>98</v>
+      </c>
+      <c r="U51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="R55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="O56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L60" t="s">
+        <v>98</v>
+      </c>
+      <c r="U60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="7:21" x14ac:dyDescent="0.15">
+      <c r="L64" t="s">
+        <v>98</v>
+      </c>
+      <c r="R64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="O67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="U69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="12:21" x14ac:dyDescent="0.15">
+      <c r="L71" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:X3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>